--- a/坐标测试文件/test-xy-151.xlsx
+++ b/坐标测试文件/test-xy-151.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\VSCode Workplace\new_Delivery\坐标测试文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A04457-4D89-4C4D-A689-DBA2216023E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D92EA6-536D-4CDA-A772-5817F75464E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="1032" windowWidth="19236" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="2712" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="节点信息" sheetId="1" r:id="rId1"/>
+    <sheet name="车辆信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -470,13 +471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -501,23 +502,8 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -536,19 +522,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>200</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -573,7 +548,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -598,7 +573,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -623,7 +598,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -648,7 +623,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -673,7 +648,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,7 +673,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -723,7 +698,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -748,7 +723,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -773,7 +748,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -798,7 +773,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -823,7 +798,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,7 +823,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -873,7 +848,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -898,7 +873,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -923,7 +898,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +923,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -973,7 +948,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -998,7 +973,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +998,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1023,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1048,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1073,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1098,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1123,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1148,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1173,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1198,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1223,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1248,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1273,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1298,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +1323,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1348,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1373,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1398,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1423,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1448,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,7 +1473,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1498,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -1548,7 +1523,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -1573,7 +1548,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1573,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1598,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1623,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1648,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1698,7 +1673,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1698,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1723,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1748,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -1798,7 +1773,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1798,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +1823,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1848,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1873,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +1898,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -1948,7 +1923,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -1973,7 +1948,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -1998,7 +1973,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +1998,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2023,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2048,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -2098,7 +2073,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2098,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2148,7 +2123,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2148,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2173,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2198,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2223,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2248,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -2298,7 +2273,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2298,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -2348,7 +2323,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2348,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -2398,7 +2373,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2398,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -2448,7 +2423,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2448,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2473,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +2498,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -2548,7 +2523,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2548,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +2573,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2598,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2623,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -2673,7 +2648,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2673,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2698,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -2748,7 +2723,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2748,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2773,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -2823,7 +2798,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -2848,7 +2823,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -2873,7 +2848,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +2873,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -2923,7 +2898,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -2948,7 +2923,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2948,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +2973,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +2998,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -3902,4 +3877,51 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C1A1E0-E0F6-4D7A-AE9F-F2445F5D85D1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>